--- a/Code/gpu_vs_time/gpu_time_test_results.xlsx
+++ b/Code/gpu_vs_time/gpu_time_test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ORNL_Coding\Code\gpu_vs_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B9F3042-5764-4F84-BB22-ED999E1FFA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904635A4-E10E-49B4-9FE5-1172D394B74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95A58FA8-506F-4E56-B639-CDE8E5815D05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95A58FA8-506F-4E56-B639-CDE8E5815D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,22 +610,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9355252801413247</c:v>
+                  <c:v>1.8904493743168918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.79718473363411635</c:v>
+                  <c:v>0.28709755902581963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.18414332369970707</c:v>
+                  <c:v>-0.24533350781131547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.50971333801515861</c:v>
+                  <c:v>-0.49446374755122191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11371860429103069</c:v>
+                  <c:v>-0.66628606270257773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.55820248908341275</c:v>
+                  <c:v>-0.77146361527759666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,22 +702,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0320336244898667</c:v>
+                  <c:v>1.7742323558554192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.25911838164635415</c:v>
+                  <c:v>0.44258231091368155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.55062656099853169</c:v>
+                  <c:v>-4.3699550325388928E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.36651613193400767</c:v>
+                  <c:v>-0.5566144124632908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.42788627495551568</c:v>
+                  <c:v>-0.67049345078934375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.42788627495551568</c:v>
+                  <c:v>-0.94600725319108248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,22 +2386,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>148.54</c:v>
+                  <c:v>144.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.65</c:v>
+                  <c:v>78.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142.41999999999999</c:v>
+                  <c:v>56.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141.47999999999999</c:v>
+                  <c:v>46.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143.28</c:v>
+                  <c:v>39.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141.34</c:v>
+                  <c:v>35.020000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,22 +2885,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>789.98</c:v>
+                  <c:v>709.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>785.5</c:v>
+                  <c:v>680.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>784.93</c:v>
+                  <c:v>669.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>785.29</c:v>
+                  <c:v>658.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>785.17</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>785.17</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6509,7 +6509,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6571,10 +6571,10 @@
         <v>2.85</v>
       </c>
       <c r="F2">
-        <v>148.54</v>
+        <v>144.86000000000001</v>
       </c>
       <c r="G2">
-        <v>789.98</v>
+        <v>709.24</v>
       </c>
       <c r="J2">
         <f>AVERAGE(B2:B7)</f>
@@ -6602,10 +6602,10 @@
         <v>0.79</v>
       </c>
       <c r="F3">
-        <v>140.65</v>
+        <v>78.7</v>
       </c>
       <c r="G3">
-        <v>785.5</v>
+        <v>680.24</v>
       </c>
       <c r="J3">
         <f>AVERAGE(C2:C7)</f>
@@ -6633,10 +6633,10 @@
         <v>0.36</v>
       </c>
       <c r="F4">
-        <v>142.41999999999999</v>
+        <v>56.73</v>
       </c>
       <c r="G4">
-        <v>784.93</v>
+        <v>669.65</v>
       </c>
       <c r="J4">
         <f>AVERAGE(D2:D7)</f>
@@ -6664,10 +6664,10 @@
         <v>0.36</v>
       </c>
       <c r="F5">
-        <v>141.47999999999999</v>
+        <v>46.45</v>
       </c>
       <c r="G5">
-        <v>785.29</v>
+        <v>658.48</v>
       </c>
       <c r="J5">
         <f>AVERAGE(E2:E7)</f>
@@ -6695,18 +6695,18 @@
         <v>0.4</v>
       </c>
       <c r="F6">
-        <v>143.28</v>
+        <v>39.36</v>
       </c>
       <c r="G6">
-        <v>785.17</v>
+        <v>656</v>
       </c>
       <c r="J6">
         <f>AVERAGE(F2:F7)</f>
-        <v>142.95166666666668</v>
+        <v>66.853333333333339</v>
       </c>
       <c r="K6">
         <f>STDEV(F2:F7)</f>
-        <v>2.8872437837263849</v>
+        <v>41.263557610398401</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6726,18 +6726,18 @@
         <v>0.75</v>
       </c>
       <c r="F7">
-        <v>141.34</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="G7">
-        <v>785.17</v>
+        <v>650</v>
       </c>
       <c r="J7">
         <f>AVERAGE(G2:G7)</f>
-        <v>786.00666666666666</v>
+        <v>670.60166666666669</v>
       </c>
       <c r="K7">
         <f>STDEV(G2:G7)</f>
-        <v>1.9553482213321376</v>
+        <v>21.777493351317244</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6759,11 +6759,11 @@
       </c>
       <c r="F9">
         <f>(F2-J$6)/K$6</f>
-        <v>1.9355252801413247</v>
+        <v>1.8904493743168918</v>
       </c>
       <c r="G9">
         <f>(G2-J$7)/K$7</f>
-        <v>2.0320336244898667</v>
+        <v>1.7742323558554192</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6785,11 +6785,11 @@
       </c>
       <c r="F10">
         <f t="shared" ref="F10:F14" si="3">(F3-J$6)/K$6</f>
-        <v>-0.79718473363411635</v>
+        <v>0.28709755902581963</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:G14" si="4">(G3-J$7)/K$7</f>
-        <v>-0.25911838164635415</v>
+        <v>0.44258231091368155</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6811,11 +6811,11 @@
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>-0.18414332369970707</v>
+        <v>-0.24533350781131547</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>-0.55062656099853169</v>
+        <v>-4.3699550325388928E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6837,11 +6837,11 @@
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>-0.50971333801515861</v>
+        <v>-0.49446374755122191</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>-0.36651613193400767</v>
+        <v>-0.5566144124632908</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6863,11 +6863,11 @@
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0.11371860429103069</v>
+        <v>-0.66628606270257773</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>-0.42788627495551568</v>
+        <v>-0.67049345078934375</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6889,11 +6889,11 @@
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>-0.55820248908341275</v>
+        <v>-0.77146361527759666</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>-0.42788627495551568</v>
+        <v>-0.94600725319108248</v>
       </c>
     </row>
   </sheetData>

--- a/Code/gpu_vs_time/gpu_time_test_results.xlsx
+++ b/Code/gpu_vs_time/gpu_time_test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ORNL_Coding\Code\gpu_vs_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904635A4-E10E-49B4-9FE5-1172D394B74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F35CE-7972-4276-A471-D4F0F7F7715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95A58FA8-506F-4E56-B639-CDE8E5815D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95A58FA8-506F-4E56-B639-CDE8E5815D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>PCA: SMC2 Dataset</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Std. Devs</t>
+  </si>
+  <si>
+    <t>CPU Time</t>
+  </si>
+  <si>
+    <t>GPU Time</t>
   </si>
 </sst>
 </file>
@@ -107,957 +113,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Graph Showing GPU vs Normalized Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>PCA SMC2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.0411620239760424</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.417309839367554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.417309839367554</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.40218078174697808</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.39461625293669006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.40974531055726598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-493B-436F-9E43-26E828FFDAD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>PCA HEA</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$9:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.0310280869297967</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.29368929604974925</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.48896555622003107</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.49826442575194929</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.47501725192215383</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.27509155698591287</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-493B-436F-9E43-26E828FFDAD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>K-Means SMC2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$9:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.1499308943799218</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68315133471619049</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33306666496839177</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28930608124991686</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.1985537651782276</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.2569012101361943</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-493B-436F-9E43-26E828FFDAD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>K-Means HEA</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$9:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.9991187122594438</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.13281461677651188</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.57782982623547352</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.57782982623547352</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.53643306256487244</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.17421138044711298</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-493B-436F-9E43-26E828FFDAD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>CAE SMC2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$9:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.8904493743168918</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28709755902581963</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.24533350781131547</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.49446374755122191</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.66628606270257773</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.77146361527759666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-493B-436F-9E43-26E828FFDAD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>CAE HEA</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$9:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.7742323558554192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44258231091368155</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.3699550325388928E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.5566144124632908</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.67049345078934375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.94600725319108248</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-493B-436F-9E43-26E828FFDAD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="657649144"/>
-        <c:axId val="657645944"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="657649144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># GPUs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="657645944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="657645944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Normalized Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="657649144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1652,7 +707,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2242,7 +1297,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2741,7 +1796,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3240,6 +2295,752 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart Showing CPU vs GPU Time for PCA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFCB-493D-83EC-55792C099B40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFCB-493D-83EC-55792C099B40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="649249616"/>
+        <c:axId val="649248656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="649249616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649248656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="649248656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649249616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bar Chart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Showing CPU vs GPU Time for K-Means</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E95-4A94-84CF-FBD98203EEFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E95-4A94-84CF-FBD98203EEFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="702503824"/>
+        <c:axId val="702509584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="702503824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="702509584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="702509584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="702503824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3440,527 +3241,47 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4476,7 +3797,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4992,7 +4313,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5508,7 +4829,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6005,6 +5326,1012 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6029,22 +6356,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119060</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1214438</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB81D1E-602C-429A-A360-4923E2FEE6BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A808424E-3AF5-4616-B870-EA87514E228D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,23 +6391,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A808424E-3AF5-4616-B870-EA87514E228D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B642D04-32B4-40F7-823B-C493438BF5CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6100,23 +6427,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1376361</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B642D04-32B4-40F7-823B-C493438BF5CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D230B40-F40E-411B-8027-371388EE371D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6136,23 +6463,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>147636</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D230B40-F40E-411B-8027-371388EE371D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9ACE2C-5797-4E98-8EC8-B1D7A33CF55E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6172,23 +6499,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>471486</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9ACE2C-5797-4E98-8EC8-B1D7A33CF55E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F5E835-F52B-4B1C-81C3-C0710C86B23C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6201,6 +6528,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB890269-F577-4076-BC26-1363D0BAD88F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6506,10 +6869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3887212-CC18-4151-A6DC-AFAFFAA2A19D}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6741,159 +7104,37 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
       <c r="B9">
-        <f>(B2-$J2)/$K2</f>
-        <v>2.0411620239760424</v>
+        <v>3.18</v>
       </c>
       <c r="C9">
-        <f>(C2-J$3)/K$3</f>
-        <v>2.0310280869297967</v>
+        <v>7.5</v>
       </c>
       <c r="D9">
-        <f>(D2-J$4)/K$4</f>
-        <v>1.1499308943799218</v>
+        <v>0.59</v>
       </c>
       <c r="E9">
-        <f>(E2-J$5)/K$5</f>
-        <v>1.9991187122594438</v>
-      </c>
-      <c r="F9">
-        <f>(F2-J$6)/K$6</f>
-        <v>1.8904493743168918</v>
-      </c>
-      <c r="G9">
-        <f>(G2-J$7)/K$7</f>
-        <v>1.7742323558554192</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
       <c r="B10">
-        <f>(B3-J$2)/K$2</f>
-        <v>-0.417309839367554</v>
+        <v>0.02</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C14" si="0">(C3-J$3)/K$3</f>
-        <v>-0.29368929604974925</v>
+        <v>1.84</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D14" si="1">(D3-J$4)/K$4</f>
-        <v>0.68315133471619049</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E14" si="2">(E3-J$5)/K$5</f>
-        <v>-0.13281461677651188</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F14" si="3">(F3-J$6)/K$6</f>
-        <v>0.28709755902581963</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G14" si="4">(G3-J$7)/K$7</f>
-        <v>0.44258231091368155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>(B4-J$2)/K$2</f>
-        <v>-0.417309839367554</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-0.48896555622003107</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0.33306666496839177</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>-0.57782982623547352</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>-0.24533350781131547</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>-4.3699550325388928E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>(B5-J$2)/K$2</f>
-        <v>-0.40218078174697808</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-0.49826442575194929</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0.28930608124991686</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>-0.57782982623547352</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>-0.49446374755122191</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>-0.5566144124632908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>(B6-J$2)/K$2</f>
-        <v>-0.39461625293669006</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>-0.47501725192215383</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>-1.1985537651782276</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>-0.53643306256487244</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>-0.66628606270257773</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>-0.67049345078934375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>(B7-J$2)/K$2</f>
-        <v>-0.40974531055726598</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>-0.27509155698591287</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>-1.2569012101361943</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>-0.17421138044711298</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>-0.77146361527759666</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>-0.94600725319108248</v>
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Code/gpu_vs_time/gpu_time_test_results.xlsx
+++ b/Code/gpu_vs_time/gpu_time_test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ORNL_Coding\Code\gpu_vs_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F35CE-7972-4276-A471-D4F0F7F7715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AECF4DE-C3D3-4199-BDBA-B308C5F779F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95A58FA8-506F-4E56-B639-CDE8E5815D05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95A58FA8-506F-4E56-B639-CDE8E5815D05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>PCA: SMC2 Dataset</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>GPU Time</t>
+  </si>
+  <si>
+    <t>yo</t>
   </si>
 </sst>
 </file>
@@ -2400,6 +2403,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>SMC2 Dataset</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> HEA Dataset</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$9:$C$9</c:f>
@@ -2445,6 +2459,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>SMC2 Dataset</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> HEA Dataset</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$10:$C$10</c:f>
@@ -2452,7 +2477,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.84</c:v>
@@ -2486,6 +2511,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2550,6 +2576,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2773,6 +2854,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>SMC2 Dataset</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> HEA Dataset</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$9:$E$9</c:f>
@@ -2818,6 +2910,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>SMC2 Dataset</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> HEA Dataset</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$10:$E$10</c:f>
@@ -2825,7 +2928,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.46</c:v>
@@ -2859,6 +2962,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2923,6 +3027,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6500,15 +6659,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>171447</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6536,15 +6695,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6869,10 +7028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3887212-CC18-4151-A6DC-AFAFFAA2A19D}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,16 +7284,21 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="C10">
         <v>1.84</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E10">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="40" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
